--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scoala\master anul 1\Machine Learning\GenomPrediction\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D523612A-C243-457A-B7E9-A60BC45ABFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868D3306-635D-41F3-AD0C-C197999322BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="1500" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
   <si>
     <t>Test Accuracy: 0.5049861669540405 Test Recall: 0.4868196554236716 Test Mean Squared Error: 1.5038781163434902</t>
   </si>
@@ -113,6 +113,81 @@
   </si>
   <si>
     <t>GraphNN</t>
+  </si>
+  <si>
+    <t>Trees</t>
+  </si>
+  <si>
+    <t>CatBoost</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Mean Square Error</t>
+  </si>
+  <si>
+    <t>LightGBM</t>
+  </si>
+  <si>
+    <t>RNN</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
+  </si>
+  <si>
+    <t>Gradient Boosting</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>Support Vector Classifier</t>
+  </si>
+  <si>
+    <t>Gaussian Naive Bayes</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>K-Nearest Neighbors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assembly with top 3 </t>
+  </si>
+  <si>
+    <t>Genetic Disorder</t>
+  </si>
+  <si>
+    <t>Disorder Subclass</t>
+  </si>
+  <si>
+    <t>Test Accuracy: 0.35124653577804565 Test Recall: 0.2849489465203698 Test Mean Squared Error: 5.11578947368421</t>
+  </si>
+  <si>
+    <t>Trees with Genetic Disorder predicted</t>
+  </si>
+  <si>
+    <t>Test Accuracy: 0.3227146863937378 Test Recall: 0.24396763232505972 Test Mean Squared Error: 5.566759002770083</t>
+  </si>
+  <si>
+    <t>Test Accuracy: 0.3060941696166992 Test Recall: 0.24803478789129882 Test Mean Squared Error: 5.631024930747922</t>
+  </si>
+  <si>
+    <t>Test Accuracy: 0.3844875395298004 Test Recall: 0.2305790120818379 Test Mean Squared Error: 4.08005540166205</t>
+  </si>
+  <si>
+    <t>Test Accuracy: 0.39224377274513245 Test Recall: 0.22711301016992427 Test Mean Squared Error: 3.973684210526316</t>
   </si>
 </sst>
 </file>
@@ -452,20 +527,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B8:E14"/>
+  <dimension ref="A2:N68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0.56731301546096802</v>
+      </c>
+      <c r="D6">
+        <v>0.49316649040113603</v>
+      </c>
+      <c r="E6">
+        <v>1.28393351800554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -473,7 +585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
@@ -481,7 +593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
@@ -489,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
@@ -497,12 +609,512 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>0.77922437673130196</v>
+      </c>
+      <c r="E20">
+        <v>0.77922437673130196</v>
+      </c>
+      <c r="F20">
+        <v>0.69529085872576102</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>0.77146814404432096</v>
+      </c>
+      <c r="E21">
+        <v>0.77146814404432096</v>
+      </c>
+      <c r="F21">
+        <v>0.72631578947368403</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>0.76149584487534605</v>
+      </c>
+      <c r="E22">
+        <v>0.76149584487534605</v>
+      </c>
+      <c r="F22">
+        <v>0.75955678670360105</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>0.75761772853185505</v>
+      </c>
+      <c r="E23">
+        <v>0.75761772853185505</v>
+      </c>
+      <c r="F23">
+        <v>0.78836565096952904</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24">
+        <v>0.71939058171745096</v>
+      </c>
+      <c r="E24">
+        <v>0.71939058171745096</v>
+      </c>
+      <c r="F24">
+        <v>0.90470914127423796</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>0.68365650969529002</v>
+      </c>
+      <c r="E25">
+        <v>0.68365650969529002</v>
+      </c>
+      <c r="F25">
+        <v>0.97783933518005495</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26">
+        <v>0.58476454293628799</v>
+      </c>
+      <c r="E26">
+        <v>0.58476454293628799</v>
+      </c>
+      <c r="F26">
+        <v>1.3534626038781099</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>0.53573407202215995</v>
+      </c>
+      <c r="E27">
+        <v>0.53573407202215995</v>
+      </c>
+      <c r="F27">
+        <v>1.5171745152354501</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <v>0.53213296398891896</v>
+      </c>
+      <c r="E28">
+        <v>0.53213296398891896</v>
+      </c>
+      <c r="F28">
+        <v>1.5473684210526299</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <v>0.50221606648199402</v>
+      </c>
+      <c r="E29">
+        <v>0.50221606648199402</v>
+      </c>
+      <c r="F29">
+        <v>1.6188365650969501</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>0.77977839335179999</v>
+      </c>
+      <c r="D33">
+        <v>0.77977839335179999</v>
+      </c>
+      <c r="E33">
+        <v>0.69972299168975005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>0.59861493110656705</v>
+      </c>
+      <c r="D41">
+        <v>0.51421000754493795</v>
+      </c>
+      <c r="E41">
+        <v>1.2764542936287999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" t="s">
+        <v>13</v>
+      </c>
+      <c r="L54" t="s">
+        <v>14</v>
+      </c>
+      <c r="M54" t="s">
+        <v>15</v>
+      </c>
+      <c r="N54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55">
+        <v>0.673684210526315</v>
+      </c>
+      <c r="E55">
+        <v>0.673684210526315</v>
+      </c>
+      <c r="F55">
+        <v>2.1191135734072</v>
+      </c>
+      <c r="K55" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55">
+        <v>0.28975069252077501</v>
+      </c>
+      <c r="M55">
+        <v>0.28975069252077501</v>
+      </c>
+      <c r="N55">
+        <v>5.6650969529085797</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56">
+        <v>0.66814404432132901</v>
+      </c>
+      <c r="E56">
+        <v>0.66814404432132901</v>
+      </c>
+      <c r="F56">
+        <v>2.2958448753462601</v>
+      </c>
+      <c r="K56" t="s">
+        <v>12</v>
+      </c>
+      <c r="L56">
+        <v>0.28836565096952899</v>
+      </c>
+      <c r="M56">
+        <v>0.28836565096952899</v>
+      </c>
+      <c r="N56">
+        <v>5.9847645429362801</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57">
+        <v>0.66398891966758999</v>
+      </c>
+      <c r="E57">
+        <v>0.66398891966758999</v>
+      </c>
+      <c r="F57">
+        <v>2.26011080332409</v>
+      </c>
+      <c r="K57" t="s">
+        <v>19</v>
+      </c>
+      <c r="L57">
+        <v>0.28753462603878099</v>
+      </c>
+      <c r="M57">
+        <v>0.28753462603878099</v>
+      </c>
+      <c r="N57">
+        <v>5.7121883656509604</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58">
+        <v>0.65789473684210498</v>
+      </c>
+      <c r="E58">
+        <v>0.65789473684210498</v>
+      </c>
+      <c r="F58">
+        <v>2.29224376731301</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59">
+        <v>0.59612188365650898</v>
+      </c>
+      <c r="E59">
+        <v>0.59612188365650898</v>
+      </c>
+      <c r="F59">
+        <v>2.7833795013850402</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60">
+        <v>0.51246537396121805</v>
+      </c>
+      <c r="E60">
+        <v>0.51246537396121805</v>
+      </c>
+      <c r="F60">
+        <v>3.9747922437673102</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61">
+        <v>0.416897506925207</v>
+      </c>
+      <c r="E61">
+        <v>0.416897506925207</v>
+      </c>
+      <c r="F61">
+        <v>3.7274238227146799</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62">
+        <v>0.39418282548476402</v>
+      </c>
+      <c r="E62">
+        <v>0.39418282548476402</v>
+      </c>
+      <c r="F62">
+        <v>3.8761772853185499</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63">
+        <v>0.38864265927977798</v>
+      </c>
+      <c r="E63">
+        <v>0.38864265927977798</v>
+      </c>
+      <c r="F63">
+        <v>4.0734072022160603</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64">
+        <v>0.30387811634348999</v>
+      </c>
+      <c r="E64">
+        <v>0.30387811634348999</v>
+      </c>
+      <c r="F64">
+        <v>5.9831024930747896</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>0.67590027700831001</v>
+      </c>
+      <c r="D68">
+        <v>0.67590027700831001</v>
+      </c>
+      <c r="E68">
+        <v>2.0759002770083099</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scoala\master anul 1\Machine Learning\GenomPrediction\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868D3306-635D-41F3-AD0C-C197999322BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A50B05-D8E9-42CB-AFAD-B39CA54A70EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -530,7 +530,7 @@
   <dimension ref="A2:N68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
